--- a/Code/Results/Cases/Case_6_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_59/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.02675993802454</v>
+        <v>19.23255235147017</v>
       </c>
       <c r="C2">
-        <v>16.43826055302221</v>
+        <v>12.92848475000174</v>
       </c>
       <c r="D2">
-        <v>3.116982074910152</v>
+        <v>3.687341351542534</v>
       </c>
       <c r="E2">
-        <v>10.46840747163255</v>
+        <v>12.1365597740247</v>
       </c>
       <c r="F2">
-        <v>30.59708828571298</v>
+        <v>19.52207962363762</v>
       </c>
       <c r="G2">
-        <v>2.048882949703394</v>
+        <v>2.055103335251148</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.00217111065028</v>
+        <v>17.42833428830798</v>
       </c>
       <c r="N2">
-        <v>11.54978244774967</v>
+        <v>11.0542472229306</v>
       </c>
       <c r="O2">
-        <v>23.54812258785239</v>
+        <v>14.979173333451</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.3964298969392</v>
+        <v>17.97115909948889</v>
       </c>
       <c r="C3">
-        <v>15.30818895110501</v>
+        <v>12.19781282392538</v>
       </c>
       <c r="D3">
-        <v>3.217477920316757</v>
+        <v>3.585096559478155</v>
       </c>
       <c r="E3">
-        <v>9.88740454060197</v>
+        <v>11.47271631303517</v>
       </c>
       <c r="F3">
-        <v>29.02357976322118</v>
+        <v>18.71760878202376</v>
       </c>
       <c r="G3">
-        <v>2.05896842413385</v>
+        <v>2.06087615614806</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.67895815496458</v>
+        <v>16.29052371038929</v>
       </c>
       <c r="N3">
-        <v>11.82179570771742</v>
+        <v>11.24516858862823</v>
       </c>
       <c r="O3">
-        <v>22.50248936695004</v>
+        <v>14.57405806444509</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.34311432619246</v>
+        <v>17.15199947561605</v>
       </c>
       <c r="C4">
-        <v>14.57879722886851</v>
+        <v>11.72638379181168</v>
       </c>
       <c r="D4">
-        <v>3.279570651336609</v>
+        <v>3.520466968371475</v>
       </c>
       <c r="E4">
-        <v>9.526875661138364</v>
+        <v>11.05982527144376</v>
       </c>
       <c r="F4">
-        <v>28.05296202802791</v>
+        <v>18.22762177011354</v>
       </c>
       <c r="G4">
-        <v>2.065298751050826</v>
+        <v>2.064526641572699</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.82618892960742</v>
+        <v>15.55445450570366</v>
       </c>
       <c r="N4">
-        <v>11.99172896966847</v>
+        <v>11.36552124181753</v>
       </c>
       <c r="O4">
-        <v>21.86659673502036</v>
+        <v>14.33699741057138</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.90054353020136</v>
+        <v>16.80690813719828</v>
       </c>
       <c r="C5">
-        <v>14.27250816134736</v>
+        <v>11.52860742814825</v>
       </c>
       <c r="D5">
-        <v>3.304999359779008</v>
+        <v>3.493688966344202</v>
       </c>
       <c r="E5">
-        <v>9.379113914622556</v>
+        <v>10.89043407157187</v>
       </c>
       <c r="F5">
-        <v>27.65668027760264</v>
+        <v>18.0292311547123</v>
       </c>
       <c r="G5">
-        <v>2.067915504578398</v>
+        <v>2.066041650625067</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.46837975373746</v>
+        <v>15.24503771357438</v>
       </c>
       <c r="N5">
-        <v>12.06174657822066</v>
+        <v>11.41536287598267</v>
       </c>
       <c r="O5">
-        <v>21.6092270599113</v>
+        <v>14.24338531573068</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.82624421157684</v>
+        <v>16.74892364586375</v>
       </c>
       <c r="C6">
-        <v>14.22109874732815</v>
+        <v>11.49542701118972</v>
       </c>
       <c r="D6">
-        <v>3.309230135490189</v>
+        <v>3.489216624954769</v>
       </c>
       <c r="E6">
-        <v>9.35453119718505</v>
+        <v>10.86224473216323</v>
       </c>
       <c r="F6">
-        <v>27.59084567906282</v>
+        <v>17.99637486400806</v>
       </c>
       <c r="G6">
-        <v>2.068352322722434</v>
+        <v>2.066294893657874</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.40833931073167</v>
+        <v>15.19308667445889</v>
       </c>
       <c r="N6">
-        <v>12.07342037818514</v>
+        <v>11.42368749823358</v>
       </c>
       <c r="O6">
-        <v>21.56660464005008</v>
+        <v>14.22802321566066</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.33719990090461</v>
+        <v>17.14739117093098</v>
       </c>
       <c r="C7">
-        <v>14.57470332990266</v>
+        <v>11.72373934557642</v>
       </c>
       <c r="D7">
-        <v>3.279913048343302</v>
+        <v>3.520107582277053</v>
       </c>
       <c r="E7">
-        <v>9.524886136293294</v>
+        <v>11.05754511010313</v>
       </c>
       <c r="F7">
-        <v>28.04762009249713</v>
+        <v>18.22494061370331</v>
       </c>
       <c r="G7">
-        <v>2.065333888219297</v>
+        <v>2.064546961561831</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.82140529415377</v>
+        <v>15.55031996828471</v>
       </c>
       <c r="N7">
-        <v>11.99267009413664</v>
+        <v>11.36619018210179</v>
       </c>
       <c r="O7">
-        <v>21.86311830348325</v>
+        <v>14.33572274524955</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.47535722416282</v>
+        <v>18.80686203455595</v>
       </c>
       <c r="C8">
-        <v>16.05590665829248</v>
+        <v>12.68131332307781</v>
       </c>
       <c r="D8">
-        <v>3.151569864822153</v>
+        <v>3.652485558692705</v>
       </c>
       <c r="E8">
-        <v>10.26891850791394</v>
+        <v>11.90886887234611</v>
       </c>
       <c r="F8">
-        <v>30.05567018446143</v>
+        <v>19.24404036005119</v>
       </c>
       <c r="G8">
-        <v>2.052333352010922</v>
+        <v>2.057072286942221</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.55419171801971</v>
+        <v>17.04375837642934</v>
       </c>
       <c r="N8">
-        <v>11.64298872773805</v>
+        <v>11.11943453103506</v>
       </c>
       <c r="O8">
-        <v>23.18643424447583</v>
+        <v>14.83710028917931</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.2625428935298</v>
+        <v>21.70925995020656</v>
       </c>
       <c r="C9">
-        <v>18.68490306799115</v>
+        <v>14.37634826153813</v>
       </c>
       <c r="D9">
-        <v>2.901617493811559</v>
+        <v>3.896421867177687</v>
       </c>
       <c r="E9">
-        <v>11.69511386837441</v>
+        <v>13.52984319786598</v>
       </c>
       <c r="F9">
-        <v>33.94635088030395</v>
+        <v>21.26274762681382</v>
       </c>
       <c r="G9">
-        <v>2.027811232536716</v>
+        <v>2.043218367436083</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.64043577960042</v>
+        <v>19.67793187294084</v>
       </c>
       <c r="N9">
-        <v>10.97880062617093</v>
+        <v>10.65987557580365</v>
       </c>
       <c r="O9">
-        <v>25.82303947636408</v>
+        <v>15.9103033080984</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.81146783497979</v>
+        <v>23.63116810584354</v>
       </c>
       <c r="C10">
-        <v>20.45809507949821</v>
+        <v>15.50891738053007</v>
       </c>
       <c r="D10">
-        <v>2.717026148880027</v>
+        <v>4.064944096142336</v>
       </c>
       <c r="E10">
-        <v>12.88592043022996</v>
+        <v>14.85060054573628</v>
       </c>
       <c r="F10">
-        <v>36.76826519635487</v>
+        <v>22.7456707451786</v>
       </c>
       <c r="G10">
-        <v>2.010198178135472</v>
+        <v>2.03347518199948</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.73042276679209</v>
+        <v>21.43825465219487</v>
       </c>
       <c r="N10">
-        <v>10.50177153530504</v>
+        <v>10.33644349720743</v>
       </c>
       <c r="O10">
-        <v>27.78057639213699</v>
+        <v>16.75002497746476</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.9237562744209</v>
+        <v>24.46077351714074</v>
       </c>
       <c r="C11">
-        <v>21.23285923388318</v>
+        <v>15.99965991407752</v>
       </c>
       <c r="D11">
-        <v>2.632373187006199</v>
+        <v>4.139082493192025</v>
       </c>
       <c r="E11">
-        <v>13.42838980055322</v>
+        <v>15.4533554792182</v>
       </c>
       <c r="F11">
-        <v>38.04464715258629</v>
+        <v>23.4183162723505</v>
       </c>
       <c r="G11">
-        <v>2.002224612672714</v>
+        <v>2.029124151732083</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.6458658533922</v>
+        <v>22.2022446358678</v>
       </c>
       <c r="N11">
-        <v>10.28670375363002</v>
+        <v>10.19227420780412</v>
       </c>
       <c r="O11">
-        <v>28.67593331051736</v>
+        <v>17.14246918573464</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.33847796246679</v>
+        <v>24.76858535198846</v>
       </c>
       <c r="C12">
-        <v>21.5218937088756</v>
+        <v>16.18198588555335</v>
       </c>
       <c r="D12">
-        <v>2.600178875997369</v>
+        <v>4.166779401928536</v>
       </c>
       <c r="E12">
-        <v>13.63179358403273</v>
+        <v>15.67865212016125</v>
       </c>
       <c r="F12">
-        <v>38.52712002595332</v>
+        <v>23.67263895744542</v>
       </c>
       <c r="G12">
-        <v>1.999206144568134</v>
+        <v>2.027487032020193</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.98774592998423</v>
+        <v>22.48636536867814</v>
       </c>
       <c r="N12">
-        <v>10.20551211905413</v>
+        <v>10.13809972496362</v>
       </c>
       <c r="O12">
-        <v>29.01581555882953</v>
+        <v>17.29253325241358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.24944294449038</v>
+        <v>24.70257322585535</v>
       </c>
       <c r="C13">
-        <v>21.45983452451953</v>
+        <v>16.14287444580145</v>
       </c>
       <c r="D13">
-        <v>2.607119281367277</v>
+        <v>4.160831392583842</v>
       </c>
       <c r="E13">
-        <v>13.58807266267865</v>
+        <v>15.63025971592243</v>
       </c>
       <c r="F13">
-        <v>38.42324508310125</v>
+        <v>23.61788493076461</v>
       </c>
       <c r="G13">
-        <v>1.999856263652236</v>
+        <v>2.027839166487517</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.91432330863609</v>
+        <v>22.42540374530719</v>
       </c>
       <c r="N13">
-        <v>10.22298745919262</v>
+        <v>10.14974860688204</v>
       </c>
       <c r="O13">
-        <v>28.9425759021642</v>
+        <v>17.26015024291415</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.95800357648888</v>
+        <v>24.48622398147036</v>
       </c>
       <c r="C14">
-        <v>21.25672406612655</v>
+        <v>16.01473018043562</v>
       </c>
       <c r="D14">
-        <v>2.629727540436743</v>
+        <v>4.141368782799204</v>
       </c>
       <c r="E14">
-        <v>13.44516295528255</v>
+        <v>15.47194921174954</v>
       </c>
       <c r="F14">
-        <v>38.0843563292873</v>
+        <v>23.4392479581215</v>
       </c>
       <c r="G14">
-        <v>2.001976291120966</v>
+        <v>2.028989260991937</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.67408645792949</v>
+        <v>22.22572271300172</v>
       </c>
       <c r="N14">
-        <v>10.2800192009007</v>
+        <v>10.18780886865638</v>
       </c>
       <c r="O14">
-        <v>28.7038779328048</v>
+        <v>17.15478614065464</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.77865487051134</v>
+        <v>24.35288051523456</v>
       </c>
       <c r="C15">
-        <v>21.13175364763716</v>
+        <v>15.93578182329275</v>
       </c>
       <c r="D15">
-        <v>2.643556570597851</v>
+        <v>4.12939777528707</v>
       </c>
       <c r="E15">
-        <v>13.3573712564134</v>
+        <v>15.37459868661237</v>
       </c>
       <c r="F15">
-        <v>37.87667209323406</v>
+        <v>23.32977366540416</v>
       </c>
       <c r="G15">
-        <v>2.003274845176318</v>
+        <v>2.029695061406772</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.52632164745497</v>
+        <v>22.10274026329898</v>
       </c>
       <c r="N15">
-        <v>10.31498459499586</v>
+        <v>10.21117631707652</v>
       </c>
       <c r="O15">
-        <v>28.55778199364918</v>
+        <v>17.09043570521502</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.73785281253119</v>
+        <v>23.57605933844846</v>
       </c>
       <c r="C16">
-        <v>20.40684021708982</v>
+        <v>15.47635453974846</v>
       </c>
       <c r="D16">
-        <v>2.722541298603089</v>
+        <v>4.060046892595299</v>
       </c>
       <c r="E16">
-        <v>12.85017321351128</v>
+        <v>14.81078881868421</v>
       </c>
       <c r="F16">
-        <v>36.68471665396734</v>
+        <v>22.7016620435423</v>
       </c>
       <c r="G16">
-        <v>2.010719667044201</v>
+        <v>2.033761069243569</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.66991069055971</v>
+        <v>21.38759451973376</v>
       </c>
       <c r="N16">
-        <v>10.51586309644597</v>
+        <v>10.34592429443492</v>
       </c>
       <c r="O16">
-        <v>27.72216978362944</v>
+        <v>16.72458366107988</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.08747020769387</v>
+        <v>23.08811835231934</v>
       </c>
       <c r="C17">
-        <v>19.95412226936968</v>
+        <v>15.18824836250237</v>
       </c>
       <c r="D17">
-        <v>2.770793112071019</v>
+        <v>4.016844968144322</v>
       </c>
       <c r="E17">
-        <v>12.53517445078606</v>
+        <v>14.45951435763589</v>
       </c>
       <c r="F17">
-        <v>35.95171184233569</v>
+        <v>22.31574483028503</v>
       </c>
       <c r="G17">
-        <v>2.015293635643945</v>
+        <v>2.036275435601639</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.13568940003159</v>
+        <v>20.93952429820985</v>
       </c>
       <c r="N17">
-        <v>10.63956918596826</v>
+        <v>10.42934116269606</v>
       </c>
       <c r="O17">
-        <v>27.21086043631433</v>
+        <v>16.50278336909121</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.70892109542117</v>
+        <v>22.80325673685002</v>
       </c>
       <c r="C18">
-        <v>19.69071575411517</v>
+        <v>15.02023285800003</v>
       </c>
       <c r="D18">
-        <v>2.798484626106976</v>
+        <v>3.9917596375964</v>
       </c>
       <c r="E18">
-        <v>12.35250894626012</v>
+        <v>14.25544974333267</v>
       </c>
       <c r="F18">
-        <v>35.5293994027339</v>
+        <v>22.0935969292849</v>
       </c>
       <c r="G18">
-        <v>2.017928413424545</v>
+        <v>2.03772934921625</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.82507675954528</v>
+        <v>20.67833646133127</v>
       </c>
       <c r="N18">
-        <v>10.71090522624582</v>
+        <v>10.47759940250533</v>
       </c>
       <c r="O18">
-        <v>26.9172136900209</v>
+        <v>16.37619562933623</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.57997478558754</v>
+        <v>22.70608183011547</v>
       </c>
       <c r="C19">
-        <v>19.60100640071922</v>
+        <v>14.96294973192269</v>
       </c>
       <c r="D19">
-        <v>2.807851114684722</v>
+        <v>3.983226000224598</v>
       </c>
       <c r="E19">
-        <v>12.29039974099351</v>
+        <v>14.1860064623319</v>
       </c>
       <c r="F19">
-        <v>35.38628636407607</v>
+        <v>22.01835490549909</v>
       </c>
       <c r="G19">
-        <v>2.01882131377387</v>
+        <v>2.038222978437733</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.71932604643142</v>
+        <v>20.58930380109535</v>
       </c>
       <c r="N19">
-        <v>10.7350908714707</v>
+        <v>10.49398696947181</v>
       </c>
       <c r="O19">
-        <v>26.8178637692336</v>
+        <v>16.33350621671789</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.15716462237462</v>
+        <v>23.14049572791453</v>
       </c>
       <c r="C20">
-        <v>20.0026253387649</v>
+        <v>15.2191562105609</v>
       </c>
       <c r="D20">
-        <v>2.765663292818111</v>
+        <v>4.021468500386945</v>
       </c>
       <c r="E20">
-        <v>12.56885889589882</v>
+        <v>14.49711644597891</v>
       </c>
       <c r="F20">
-        <v>36.02981369168158</v>
+        <v>22.3568458010421</v>
       </c>
       <c r="G20">
-        <v>2.014806351405417</v>
+        <v>2.036006986449539</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.19290207930476</v>
+        <v>20.98758051283956</v>
       </c>
       <c r="N20">
-        <v>10.62638168768422</v>
+        <v>10.42043246555338</v>
       </c>
       <c r="O20">
-        <v>27.26524347488323</v>
+        <v>16.52629274335461</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.04377950948517</v>
+        <v>24.54994241823197</v>
       </c>
       <c r="C21">
-        <v>21.31649865537883</v>
+        <v>16.0524643154147</v>
       </c>
       <c r="D21">
-        <v>2.623091016200913</v>
+        <v>4.147095783064532</v>
       </c>
       <c r="E21">
-        <v>13.48719176388893</v>
+        <v>15.51852795733944</v>
       </c>
       <c r="F21">
-        <v>38.18391756824848</v>
+        <v>23.49172936840537</v>
       </c>
       <c r="G21">
-        <v>2.001353601783772</v>
+        <v>2.028651174477409</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.74477696638103</v>
+        <v>22.28451372629282</v>
       </c>
       <c r="N21">
-        <v>10.26326100875677</v>
+        <v>10.17661831138579</v>
       </c>
       <c r="O21">
-        <v>28.77396531018208</v>
+        <v>17.18569499604568</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.23920654942386</v>
+        <v>25.43417583268622</v>
       </c>
       <c r="C22">
-        <v>22.14995370818222</v>
+        <v>16.57664641026231</v>
       </c>
       <c r="D22">
-        <v>2.529088325094316</v>
+        <v>4.226993347468507</v>
       </c>
       <c r="E22">
-        <v>14.07574647439992</v>
+        <v>16.16893161240944</v>
       </c>
       <c r="F22">
-        <v>39.67986203822909</v>
+        <v>24.23112148436691</v>
       </c>
       <c r="G22">
-        <v>1.992564372119644</v>
+        <v>2.023904446999631</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.7313314669971</v>
+        <v>23.10196428097566</v>
       </c>
       <c r="N22">
-        <v>10.02738919104629</v>
+        <v>10.01971393020921</v>
       </c>
       <c r="O22">
-        <v>29.79118572348196</v>
+        <v>17.62511452389064</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.60451027071426</v>
+        <v>24.96559305090578</v>
       </c>
       <c r="C23">
-        <v>21.70734811991495</v>
+        <v>16.29874402260432</v>
       </c>
       <c r="D23">
-        <v>2.579347990827359</v>
+        <v>4.184556914298996</v>
       </c>
       <c r="E23">
-        <v>13.76260308796562</v>
+        <v>15.82332369958148</v>
       </c>
       <c r="F23">
-        <v>38.86548184332813</v>
+        <v>23.83673405394787</v>
       </c>
       <c r="G23">
-        <v>1.997256773533937</v>
+        <v>2.026432714743805</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.20721343501002</v>
+        <v>22.66839887458503</v>
       </c>
       <c r="N23">
-        <v>10.1531534179397</v>
+        <v>10.10323498640988</v>
       </c>
       <c r="O23">
-        <v>29.23552938396603</v>
+        <v>17.38982639071599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.12567023925414</v>
+        <v>23.11682943404564</v>
       </c>
       <c r="C24">
-        <v>19.98070687654575</v>
+        <v>15.20519018455258</v>
       </c>
       <c r="D24">
-        <v>2.767982634002707</v>
+        <v>4.019378972680355</v>
       </c>
       <c r="E24">
-        <v>12.55363506076378</v>
+        <v>14.4801231299863</v>
       </c>
       <c r="F24">
-        <v>35.99450665595849</v>
+        <v>22.33826491192327</v>
       </c>
       <c r="G24">
-        <v>2.015026636252099</v>
+        <v>2.036128326151617</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.16704709375619</v>
+        <v>20.96586547651297</v>
       </c>
       <c r="N24">
-        <v>10.63234308137595</v>
+        <v>10.42445915017549</v>
       </c>
       <c r="O24">
-        <v>27.24065594066016</v>
+        <v>16.5156612602149</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.28009005233977</v>
+        <v>20.96136003624924</v>
       </c>
       <c r="C25">
-        <v>18.00226012794252</v>
+        <v>13.93755803591033</v>
       </c>
       <c r="D25">
-        <v>2.969250473420529</v>
+        <v>3.8322336087865</v>
       </c>
       <c r="E25">
-        <v>11.31303059146988</v>
+        <v>13.09726557316003</v>
       </c>
       <c r="F25">
-        <v>32.90006384679939</v>
+        <v>20.71589415850354</v>
       </c>
       <c r="G25">
-        <v>2.034359343886956</v>
+        <v>2.046885591652591</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.83768078179492</v>
+        <v>18.99641459143799</v>
       </c>
       <c r="N25">
-        <v>11.15640404664478</v>
+        <v>10.78166127179465</v>
       </c>
       <c r="O25">
-        <v>25.10606456992441</v>
+        <v>15.61071641742002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.23255235147017</v>
+        <v>17.41025200785023</v>
       </c>
       <c r="C2">
-        <v>12.92848475000174</v>
+        <v>13.86984532214029</v>
       </c>
       <c r="D2">
-        <v>3.687341351542534</v>
+        <v>4.403522430789411</v>
       </c>
       <c r="E2">
-        <v>12.1365597740247</v>
+        <v>12.56753400647386</v>
       </c>
       <c r="F2">
-        <v>19.52207962363762</v>
+        <v>16.12685037974772</v>
       </c>
       <c r="G2">
-        <v>2.055103335251148</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>19.65323766954572</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.611033255796852</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.590885879642055</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.02328676447096</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.42833428830798</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.0542472229306</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.979173333451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.96689686825198</v>
+      </c>
+      <c r="P2">
+        <v>11.63533725875828</v>
+      </c>
+      <c r="Q2">
+        <v>12.30939463628593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.97115909948889</v>
+        <v>16.31460196836738</v>
       </c>
       <c r="C3">
-        <v>12.19781282392538</v>
+        <v>13.16806110760331</v>
       </c>
       <c r="D3">
-        <v>3.585096559478155</v>
+        <v>4.202317721905134</v>
       </c>
       <c r="E3">
-        <v>11.47271631303517</v>
+        <v>11.89127173861185</v>
       </c>
       <c r="F3">
-        <v>18.71760878202376</v>
+        <v>15.5694880440621</v>
       </c>
       <c r="G3">
-        <v>2.06087615614806</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>18.82789766010589</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.46545886473781</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.566834265685609</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.13155453525867</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.29052371038929</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.24516858862823</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.57405806444509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.89297523520803</v>
+      </c>
+      <c r="P3">
+        <v>11.7107636620967</v>
+      </c>
+      <c r="Q3">
+        <v>12.10163769467335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.15199947561605</v>
+        <v>15.60018248069536</v>
       </c>
       <c r="C4">
-        <v>11.72638379181168</v>
+        <v>12.71996547048307</v>
       </c>
       <c r="D4">
-        <v>3.520466968371475</v>
+        <v>4.073589711261608</v>
       </c>
       <c r="E4">
-        <v>11.05982527144376</v>
+        <v>11.47071294767888</v>
       </c>
       <c r="F4">
-        <v>18.22762177011354</v>
+        <v>15.22800546837399</v>
       </c>
       <c r="G4">
-        <v>2.064526641572699</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>18.31800467321796</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.373355053393635</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.5560349458989</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.20382113352379</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.55445450570366</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.36552124181753</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.33699741057138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.19728928273005</v>
+      </c>
+      <c r="P4">
+        <v>11.76031912826615</v>
+      </c>
+      <c r="Q4">
+        <v>11.98056699541998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.80690813719828</v>
+        <v>15.29389358139013</v>
       </c>
       <c r="C5">
-        <v>11.52860742814825</v>
+        <v>12.54146523047426</v>
       </c>
       <c r="D5">
-        <v>3.493688966344202</v>
+        <v>4.021102891447765</v>
       </c>
       <c r="E5">
-        <v>10.89043407157187</v>
+        <v>11.29797539716544</v>
       </c>
       <c r="F5">
-        <v>18.0292311547123</v>
+        <v>15.08312528871157</v>
       </c>
       <c r="G5">
-        <v>2.066041650625067</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>18.09835471339879</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.335354085680667</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.550840951577483</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.23048642224037</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.24503771357438</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.41536287598267</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.24338531573068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.90476451208789</v>
+      </c>
+      <c r="P5">
+        <v>11.78218453741109</v>
+      </c>
+      <c r="Q5">
+        <v>11.9282412936461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.74892364586375</v>
+        <v>15.23667365355059</v>
       </c>
       <c r="C6">
-        <v>11.49542701118972</v>
+        <v>12.52176801970483</v>
       </c>
       <c r="D6">
-        <v>3.489216624954769</v>
+        <v>4.013829953308946</v>
       </c>
       <c r="E6">
-        <v>10.86224473216323</v>
+        <v>11.26892913723443</v>
       </c>
       <c r="F6">
-        <v>17.99637486400806</v>
+        <v>15.05160640728895</v>
       </c>
       <c r="G6">
-        <v>2.066294893657874</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>18.04790398591832</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.329447823768924</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.547876736820222</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.2298883856681</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.19308667445889</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.42368749823358</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.22802321566066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.85576803320213</v>
+      </c>
+      <c r="P6">
+        <v>11.7869359805478</v>
+      </c>
+      <c r="Q6">
+        <v>11.91398156903872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.14739117093098</v>
+        <v>15.5808005344338</v>
       </c>
       <c r="C7">
-        <v>11.72373934557642</v>
+        <v>12.74495701515609</v>
       </c>
       <c r="D7">
-        <v>3.520107582277053</v>
+        <v>4.076976050653769</v>
       </c>
       <c r="E7">
-        <v>11.05754511010313</v>
+        <v>11.46757661708485</v>
       </c>
       <c r="F7">
-        <v>18.22494061370331</v>
+        <v>15.20581758460418</v>
       </c>
       <c r="G7">
-        <v>2.064546961561831</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>18.27744648514938</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.373805722577818</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.550070748060443</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.19019014728997</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.55031996828471</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.36619018210179</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.33572274524955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.19372098411769</v>
+      </c>
+      <c r="P7">
+        <v>11.7636078027981</v>
+      </c>
+      <c r="Q7">
+        <v>11.96444574034159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.80686203455595</v>
+        <v>17.02237387274731</v>
       </c>
       <c r="C8">
-        <v>12.68131332307781</v>
+        <v>13.66572454210359</v>
       </c>
       <c r="D8">
-        <v>3.652485558692705</v>
+        <v>4.340400336965072</v>
       </c>
       <c r="E8">
-        <v>11.90886887234611</v>
+        <v>12.33460297001964</v>
       </c>
       <c r="F8">
-        <v>19.24404036005119</v>
+        <v>15.90896913606699</v>
       </c>
       <c r="G8">
-        <v>2.057072286942221</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>19.3222406580816</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.56237875606916</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.574007368547188</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.04074881003603</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.04375837642934</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.11943453103506</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.83710028917931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.60453609989368</v>
+      </c>
+      <c r="P8">
+        <v>11.66492056865433</v>
+      </c>
+      <c r="Q8">
+        <v>12.21644662234726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.70925995020656</v>
+        <v>19.54318160645137</v>
       </c>
       <c r="C9">
-        <v>14.37634826153813</v>
+        <v>15.28637940805055</v>
       </c>
       <c r="D9">
-        <v>3.896421867177687</v>
+        <v>4.807722408006629</v>
       </c>
       <c r="E9">
-        <v>13.52984319786598</v>
+        <v>13.98563659959694</v>
       </c>
       <c r="F9">
-        <v>21.26274762681382</v>
+        <v>17.31923448012624</v>
       </c>
       <c r="G9">
-        <v>2.043218367436083</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>21.39596077563111</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.910233843648773</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.664018420472608</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.82176459568686</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.67793187294084</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>10.65987557580365</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.9103033080984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.0835881174383</v>
+      </c>
+      <c r="P9">
+        <v>11.49206481339264</v>
+      </c>
+      <c r="Q9">
+        <v>12.78815613449355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.63116810584354</v>
+        <v>21.18848024500408</v>
       </c>
       <c r="C10">
-        <v>15.50891738053007</v>
+        <v>16.40014266623187</v>
       </c>
       <c r="D10">
-        <v>4.064944096142336</v>
+        <v>5.12563879266885</v>
       </c>
       <c r="E10">
-        <v>14.85060054573628</v>
+        <v>15.33243075076101</v>
       </c>
       <c r="F10">
-        <v>22.7456707451786</v>
+        <v>18.33448535592583</v>
       </c>
       <c r="G10">
-        <v>2.03347518199948</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>22.86591632323446</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.154673908962225</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.748647370628574</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.68780290802887</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.43825465219487</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.33644349720743</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.75002497746476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.73218325482881</v>
+      </c>
+      <c r="P10">
+        <v>11.38434418910646</v>
+      </c>
+      <c r="Q10">
+        <v>13.23062323351148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.46077351714074</v>
+        <v>21.87560646561079</v>
       </c>
       <c r="C11">
-        <v>15.99965991407752</v>
+        <v>16.92194102738015</v>
       </c>
       <c r="D11">
-        <v>4.139082493192025</v>
+        <v>5.269525295266205</v>
       </c>
       <c r="E11">
-        <v>15.4533554792182</v>
+        <v>15.94452076348077</v>
       </c>
       <c r="F11">
-        <v>23.4183162723505</v>
+        <v>18.76523123494063</v>
       </c>
       <c r="G11">
-        <v>2.029124151732083</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>23.47649560787982</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.265904503896442</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.782863183302434</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.61175403400309</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.2022446358678</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.19227420780412</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.14246918573464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>21.4455850719237</v>
+      </c>
+      <c r="P11">
+        <v>11.3458058104606</v>
+      </c>
+      <c r="Q11">
+        <v>13.41571590175989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.76858535198846</v>
+        <v>22.13970569394684</v>
       </c>
       <c r="C12">
-        <v>16.18198588555335</v>
+        <v>17.09755971096899</v>
       </c>
       <c r="D12">
-        <v>4.166779401928536</v>
+        <v>5.320181661437799</v>
       </c>
       <c r="E12">
-        <v>15.67865212016125</v>
+        <v>16.17348519567783</v>
       </c>
       <c r="F12">
-        <v>23.67263895744542</v>
+        <v>18.94225665259765</v>
       </c>
       <c r="G12">
-        <v>2.027487032020193</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>23.73236716828974</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.306529940063881</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.801492115436439</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.59669672762674</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.48636536867814</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.13809972496362</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.29253325241358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>21.71030333338717</v>
+      </c>
+      <c r="P12">
+        <v>11.32854019103049</v>
+      </c>
+      <c r="Q12">
+        <v>13.49874808411098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.70257322585535</v>
+        <v>22.08506874456425</v>
       </c>
       <c r="C13">
-        <v>16.14287444580145</v>
+        <v>17.05610968367077</v>
       </c>
       <c r="D13">
-        <v>4.160831392583842</v>
+        <v>5.308733248803768</v>
       </c>
       <c r="E13">
-        <v>15.63025971592243</v>
+        <v>16.1244062406167</v>
       </c>
       <c r="F13">
-        <v>23.61788493076461</v>
+        <v>18.90704657639289</v>
       </c>
       <c r="G13">
-        <v>2.027839166487517</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>23.68248351501558</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.297504751053574</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.798434302033534</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.60238892049342</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.42540374530719</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.14974860688204</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.26015024291415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>21.65348857391734</v>
+      </c>
+      <c r="P13">
+        <v>11.3315542694561</v>
+      </c>
+      <c r="Q13">
+        <v>13.48322278816774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.48622398147036</v>
+        <v>21.89829985188591</v>
       </c>
       <c r="C14">
-        <v>16.01473018043562</v>
+        <v>16.93484078768898</v>
       </c>
       <c r="D14">
-        <v>4.141368782799204</v>
+        <v>5.273463529990017</v>
       </c>
       <c r="E14">
-        <v>15.47194921174954</v>
+        <v>15.96346079409264</v>
       </c>
       <c r="F14">
-        <v>23.4392479581215</v>
+        <v>18.78104238494719</v>
       </c>
       <c r="G14">
-        <v>2.028989260991937</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>23.49978297939141</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.269124957377427</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.784801138603958</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.6115535737911</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.22572271300172</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.18780886865638</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.15478614065464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>21.46745313998468</v>
+      </c>
+      <c r="P14">
+        <v>11.34408680336426</v>
+      </c>
+      <c r="Q14">
+        <v>13.42355174066579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.35288051523456</v>
+        <v>21.77916224683965</v>
       </c>
       <c r="C15">
-        <v>15.93578182329275</v>
+        <v>16.86768132519956</v>
       </c>
       <c r="D15">
-        <v>4.12939777528707</v>
+        <v>5.252896154077871</v>
       </c>
       <c r="E15">
-        <v>15.37459868661237</v>
+        <v>15.86427626405459</v>
       </c>
       <c r="F15">
-        <v>23.32977366540416</v>
+        <v>18.69801599300191</v>
       </c>
       <c r="G15">
-        <v>2.029695061406772</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>23.37737055156259</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.252342843363683</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.774595525120839</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.6124077159479</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.10274026329898</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.21117631707652</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.09043570521502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>21.35289162998949</v>
+      </c>
+      <c r="P15">
+        <v>11.35316469350192</v>
+      </c>
+      <c r="Q15">
+        <v>13.38235614284349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.57605933844846</v>
+        <v>21.1088213369635</v>
       </c>
       <c r="C16">
-        <v>15.47635453974846</v>
+        <v>16.42995243651458</v>
       </c>
       <c r="D16">
-        <v>4.060046892595299</v>
+        <v>5.125986912423514</v>
       </c>
       <c r="E16">
-        <v>14.81078881868421</v>
+        <v>15.29043870306438</v>
       </c>
       <c r="F16">
-        <v>22.7016620435423</v>
+        <v>18.25697146762334</v>
       </c>
       <c r="G16">
-        <v>2.033761069243569</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>22.7373311513141</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.151778534021818</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.729991852569121</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.65143320412891</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.38759451973376</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.34592429443492</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.72458366107988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>20.68545535603091</v>
+      </c>
+      <c r="P16">
+        <v>11.39788602950108</v>
+      </c>
+      <c r="Q16">
+        <v>13.17811092454934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.08811835231934</v>
+        <v>20.68652189639723</v>
       </c>
       <c r="C17">
-        <v>15.18824836250237</v>
+        <v>16.15638991946225</v>
       </c>
       <c r="D17">
-        <v>4.016844968144322</v>
+        <v>5.046556441687834</v>
       </c>
       <c r="E17">
-        <v>14.45951435763589</v>
+        <v>14.93248538288537</v>
       </c>
       <c r="F17">
-        <v>22.31574483028503</v>
+        <v>17.9852024396213</v>
       </c>
       <c r="G17">
-        <v>2.036275435601639</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>22.34185866221548</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.08964014449872</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.703966239321351</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.67778999616304</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.93952429820985</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.42934116269606</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.50278336909121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>20.26660315850999</v>
+      </c>
+      <c r="P17">
+        <v>11.42630610688052</v>
+      </c>
+      <c r="Q17">
+        <v>13.05443272153473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.80325673685002</v>
+        <v>20.45011676491612</v>
       </c>
       <c r="C18">
-        <v>15.02023285800003</v>
+        <v>15.97721422092733</v>
       </c>
       <c r="D18">
-        <v>3.9917596375964</v>
+        <v>4.997235885557976</v>
       </c>
       <c r="E18">
-        <v>14.25544974333267</v>
+        <v>14.72487721142203</v>
       </c>
       <c r="F18">
-        <v>22.0935969292849</v>
+        <v>17.84376096665704</v>
       </c>
       <c r="G18">
-        <v>2.03772934921625</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>22.14093135040153</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.0517073976613</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.69451331839863</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.7063172421443</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.67833646133127</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>10.47759940250533</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.37619562933623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>20.02201320545531</v>
+      </c>
+      <c r="P18">
+        <v>11.43974959172427</v>
+      </c>
+      <c r="Q18">
+        <v>12.99636171510049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.70608183011547</v>
+        <v>20.36123951058902</v>
       </c>
       <c r="C19">
-        <v>14.96294973192269</v>
+        <v>15.93161910077098</v>
       </c>
       <c r="D19">
-        <v>3.983226000224598</v>
+        <v>4.982794068139836</v>
       </c>
       <c r="E19">
-        <v>14.1860064623319</v>
+        <v>14.65383661747861</v>
       </c>
       <c r="F19">
-        <v>22.01835490549909</v>
+        <v>17.78404899804009</v>
       </c>
       <c r="G19">
-        <v>2.038222978437733</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>22.05155041842065</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.040332224502778</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.687515659287792</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.70646673310562</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.58930380109535</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.49398696947181</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.33350621671789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>19.93875778061115</v>
+      </c>
+      <c r="P19">
+        <v>11.44687642395296</v>
+      </c>
+      <c r="Q19">
+        <v>12.96720653086309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.14049572791453</v>
+        <v>20.73271780213308</v>
       </c>
       <c r="C20">
-        <v>15.2191562105609</v>
+        <v>16.18414859864182</v>
       </c>
       <c r="D20">
-        <v>4.021468500386945</v>
+        <v>5.054833558910309</v>
       </c>
       <c r="E20">
-        <v>14.49711644597891</v>
+        <v>14.97085441183778</v>
       </c>
       <c r="F20">
-        <v>22.3568458010421</v>
+        <v>18.0153625972305</v>
       </c>
       <c r="G20">
-        <v>2.036006986449539</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>22.38619801263966</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.09610874475131</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.707080427245463</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10.67587752754027</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.98758051283956</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.42043246555338</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.52629274335461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.31153408178483</v>
+      </c>
+      <c r="P20">
+        <v>11.42298604123422</v>
+      </c>
+      <c r="Q20">
+        <v>13.06850805442539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.54994241823197</v>
+        <v>21.94225094964572</v>
       </c>
       <c r="C21">
-        <v>16.0524643154147</v>
+        <v>16.99166660909596</v>
       </c>
       <c r="D21">
-        <v>4.147095783064532</v>
+        <v>5.28710125769299</v>
       </c>
       <c r="E21">
-        <v>15.51852795733944</v>
+        <v>16.01032504731939</v>
       </c>
       <c r="F21">
-        <v>23.49172936840537</v>
+        <v>18.80186879326824</v>
       </c>
       <c r="G21">
-        <v>2.028651174477409</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>23.5245173985192</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.279308655577266</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.783243386836514</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.59476846515849</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.28451372629282</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.17661831138579</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.18569499604568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>21.52243787669382</v>
+      </c>
+      <c r="P21">
+        <v>11.34417823640855</v>
+      </c>
+      <c r="Q21">
+        <v>13.42759697370577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.43417583268622</v>
+        <v>22.7107262713994</v>
       </c>
       <c r="C22">
-        <v>16.57664641026231</v>
+        <v>17.47608880806183</v>
       </c>
       <c r="D22">
-        <v>4.226993347468507</v>
+        <v>5.42957101603891</v>
       </c>
       <c r="E22">
-        <v>16.16893161240944</v>
+        <v>16.67126113319935</v>
       </c>
       <c r="F22">
-        <v>24.23112148436691</v>
+        <v>19.33203840070843</v>
       </c>
       <c r="G22">
-        <v>2.023904446999631</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>24.29540829587746</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.395195182200402</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.844515876605551</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.56789648011497</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.10196428097566</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.01971393020921</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.62511452389064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>22.28305179274625</v>
+      </c>
+      <c r="P22">
+        <v>11.29118024225445</v>
+      </c>
+      <c r="Q22">
+        <v>13.68451765425948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.96559305090578</v>
+        <v>22.31709040843417</v>
       </c>
       <c r="C23">
-        <v>16.29874402260432</v>
+        <v>17.1938078091386</v>
       </c>
       <c r="D23">
-        <v>4.184556914298996</v>
+        <v>5.350118729281093</v>
       </c>
       <c r="E23">
-        <v>15.82332369958148</v>
+        <v>16.3208147398441</v>
       </c>
       <c r="F23">
-        <v>23.83673405394787</v>
+        <v>19.06889744448581</v>
       </c>
       <c r="G23">
-        <v>2.026432714743805</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>23.91951975688448</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.331552923769396</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.818063021200423</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.59841395672784</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.66839887458503</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.10323498640988</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.38982639071599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.87963523439297</v>
+      </c>
+      <c r="P23">
+        <v>11.31456394030483</v>
+      </c>
+      <c r="Q23">
+        <v>13.56306965848987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.11682943404564</v>
+        <v>20.7339615996851</v>
       </c>
       <c r="C24">
-        <v>15.20519018455258</v>
+        <v>16.12972687146706</v>
       </c>
       <c r="D24">
-        <v>4.019378972680355</v>
+        <v>5.044675040941922</v>
       </c>
       <c r="E24">
-        <v>14.4801231299863</v>
+        <v>14.95451405505297</v>
       </c>
       <c r="F24">
-        <v>22.33826491192327</v>
+        <v>18.0337623636098</v>
       </c>
       <c r="G24">
-        <v>2.036128326151617</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>22.42380835083261</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.089637921563017</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.71629785525321</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.70327391583719</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.96586547651297</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.42445915017549</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.5156612602149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>20.29081063792364</v>
+      </c>
+      <c r="P24">
+        <v>11.41755098567698</v>
+      </c>
+      <c r="Q24">
+        <v>13.0883632025969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.96136003624924</v>
+        <v>18.87334803128321</v>
       </c>
       <c r="C25">
-        <v>13.93755803591033</v>
+        <v>14.90663503208791</v>
       </c>
       <c r="D25">
-        <v>3.8322336087865</v>
+        <v>4.692588352654476</v>
       </c>
       <c r="E25">
-        <v>13.09726557316003</v>
+        <v>13.54416827590937</v>
       </c>
       <c r="F25">
-        <v>20.71589415850354</v>
+        <v>16.90621754239587</v>
       </c>
       <c r="G25">
-        <v>2.046885591652591</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>20.78078485987043</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.820454656445018</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.625558466141038</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.84971269766761</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.99641459143799</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>10.78166127179465</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.61071641742002</v>
+        <v>18.44395606332739</v>
+      </c>
+      <c r="P25">
+        <v>11.54219132275204</v>
+      </c>
+      <c r="Q25">
+        <v>12.60182105000538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.41025200785023</v>
+        <v>17.19821246728021</v>
       </c>
       <c r="C2">
-        <v>13.86984532214029</v>
+        <v>14.12255627564811</v>
       </c>
       <c r="D2">
-        <v>4.403522430789411</v>
+        <v>4.478336085152644</v>
       </c>
       <c r="E2">
-        <v>12.56753400647386</v>
+        <v>12.54351966411128</v>
       </c>
       <c r="F2">
-        <v>16.12685037974772</v>
+        <v>15.93898100363362</v>
       </c>
       <c r="G2">
-        <v>19.65323766954572</v>
+        <v>18.68424102819965</v>
       </c>
       <c r="I2">
-        <v>3.611033255796852</v>
+        <v>3.564512580012362</v>
       </c>
       <c r="J2">
-        <v>7.590885879642055</v>
+        <v>8.272856665502056</v>
       </c>
       <c r="K2">
-        <v>11.02328676447096</v>
+        <v>10.90536479630106</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.5011926480988</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.696416536663329</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.96689686825198</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.63533725875828</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.30939463628593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.9473240245877</v>
+      </c>
+      <c r="R2">
+        <v>11.70703715685667</v>
+      </c>
+      <c r="S2">
+        <v>12.1966359118208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.31460196836738</v>
+        <v>16.14790135281537</v>
       </c>
       <c r="C3">
-        <v>13.16806110760331</v>
+        <v>13.33465940148255</v>
       </c>
       <c r="D3">
-        <v>4.202317721905134</v>
+        <v>4.262795881077747</v>
       </c>
       <c r="E3">
-        <v>11.89127173861185</v>
+        <v>11.8694970439866</v>
       </c>
       <c r="F3">
-        <v>15.5694880440621</v>
+        <v>15.42966093911149</v>
       </c>
       <c r="G3">
-        <v>18.82789766010589</v>
+        <v>17.89741939138653</v>
       </c>
       <c r="I3">
-        <v>3.46545886473781</v>
+        <v>3.434758868813463</v>
       </c>
       <c r="J3">
-        <v>7.566834265685609</v>
+        <v>8.238244625935559</v>
       </c>
       <c r="K3">
-        <v>11.13155453525867</v>
+        <v>11.03126350525042</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.67964103634239</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.691214498077386</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.89297523520803</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.7107636620967</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.10163769467335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.87620773115109</v>
+      </c>
+      <c r="R3">
+        <v>11.76029572652198</v>
+      </c>
+      <c r="S3">
+        <v>12.02215559794863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.60018248069536</v>
+        <v>15.46295576815575</v>
       </c>
       <c r="C4">
-        <v>12.71996547048307</v>
+        <v>12.83089905432612</v>
       </c>
       <c r="D4">
-        <v>4.073589711261608</v>
+        <v>4.124849842794787</v>
       </c>
       <c r="E4">
-        <v>11.47071294767888</v>
+        <v>11.45042636157056</v>
       </c>
       <c r="F4">
-        <v>15.22800546837399</v>
+        <v>15.11711355283923</v>
       </c>
       <c r="G4">
-        <v>18.31800467321796</v>
+        <v>17.41193636081936</v>
       </c>
       <c r="I4">
-        <v>3.373355053393635</v>
+        <v>3.352761468514968</v>
       </c>
       <c r="J4">
-        <v>7.5560349458989</v>
+        <v>8.218550371171675</v>
       </c>
       <c r="K4">
-        <v>11.20382113352379</v>
+        <v>11.11269065636962</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.79277556577014</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.716067381036146</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.19728928273005</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>11.76031912826615</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.98056699541998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.18214236803449</v>
+      </c>
+      <c r="R4">
+        <v>11.79654626642927</v>
+      </c>
+      <c r="S4">
+        <v>11.92032715447255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.29389358139013</v>
+        <v>15.16908060264173</v>
       </c>
       <c r="C5">
-        <v>12.54146523047426</v>
+        <v>12.629300417905</v>
       </c>
       <c r="D5">
-        <v>4.021102891447765</v>
+        <v>4.068514119000217</v>
       </c>
       <c r="E5">
-        <v>11.29797539716544</v>
+        <v>11.27832776605075</v>
       </c>
       <c r="F5">
-        <v>15.08312528871157</v>
+        <v>14.983838849811</v>
       </c>
       <c r="G5">
-        <v>18.09835471339879</v>
+        <v>17.20205418345295</v>
       </c>
       <c r="I5">
-        <v>3.335354085680667</v>
+        <v>3.319213694978856</v>
       </c>
       <c r="J5">
-        <v>7.550840951577483</v>
+        <v>8.209211616550311</v>
       </c>
       <c r="K5">
-        <v>11.23048642224037</v>
+        <v>11.14280738849769</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.83605840052003</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.730833208880401</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.90476451208789</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>11.78218453741109</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.9282412936461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.89026093625704</v>
+      </c>
+      <c r="R5">
+        <v>11.81311043492794</v>
+      </c>
+      <c r="S5">
+        <v>11.87554962984305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.23667365355059</v>
+        <v>15.11392808168949</v>
       </c>
       <c r="C6">
-        <v>12.52176801970483</v>
+        <v>12.60604837811159</v>
       </c>
       <c r="D6">
-        <v>4.013829953308946</v>
+        <v>4.060605018997812</v>
       </c>
       <c r="E6">
-        <v>11.26892913723443</v>
+        <v>11.24939037061615</v>
       </c>
       <c r="F6">
-        <v>15.05160640728895</v>
+        <v>14.95423385126775</v>
       </c>
       <c r="G6">
-        <v>18.04790398591832</v>
+        <v>17.15283719888533</v>
       </c>
       <c r="I6">
-        <v>3.329447823768924</v>
+        <v>3.31437513217946</v>
       </c>
       <c r="J6">
-        <v>7.547876736820222</v>
+        <v>8.205605780932688</v>
       </c>
       <c r="K6">
-        <v>11.2298883856681</v>
+        <v>11.14290400564532</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.83875841461379</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.730884989535659</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.85576803320213</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>11.7869359805478</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.91398156903872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.84137623416772</v>
+      </c>
+      <c r="R6">
+        <v>11.81704206402253</v>
+      </c>
+      <c r="S6">
+        <v>11.86255263924855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.5808005344338</v>
+        <v>15.43882863220756</v>
       </c>
       <c r="C7">
-        <v>12.74495701515609</v>
+        <v>12.84850511547477</v>
       </c>
       <c r="D7">
-        <v>4.076976050653769</v>
+        <v>4.131107691390742</v>
       </c>
       <c r="E7">
-        <v>11.46757661708485</v>
+        <v>11.44991064025268</v>
       </c>
       <c r="F7">
-        <v>15.20581758460418</v>
+        <v>15.08146238996303</v>
       </c>
       <c r="G7">
-        <v>18.27744648514938</v>
+        <v>17.47648890452706</v>
       </c>
       <c r="I7">
-        <v>3.373805722577818</v>
+        <v>3.353608282485305</v>
       </c>
       <c r="J7">
-        <v>7.550070748060443</v>
+        <v>8.171398356346323</v>
       </c>
       <c r="K7">
-        <v>11.19019014728997</v>
+        <v>11.09511925066043</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.77728864057301</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.705283952857839</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.19372098411769</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>11.7636078027981</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.96444574034159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.17596164258999</v>
+      </c>
+      <c r="R7">
+        <v>11.80115247729939</v>
+      </c>
+      <c r="S7">
+        <v>11.89419283244928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.02237387274731</v>
+        <v>16.81061843444676</v>
       </c>
       <c r="C8">
-        <v>13.66572454210359</v>
+        <v>13.8656171372558</v>
       </c>
       <c r="D8">
-        <v>4.340400336965072</v>
+        <v>4.419553748044507</v>
       </c>
       <c r="E8">
-        <v>12.33460297001964</v>
+        <v>12.319471287248</v>
       </c>
       <c r="F8">
-        <v>15.90896913606699</v>
+        <v>15.69423005822853</v>
       </c>
       <c r="G8">
-        <v>19.3222406580816</v>
+        <v>18.69968025778778</v>
       </c>
       <c r="I8">
-        <v>3.56237875606916</v>
+        <v>3.520739000700972</v>
       </c>
       <c r="J8">
-        <v>7.574007368547188</v>
+        <v>8.118045035204004</v>
       </c>
       <c r="K8">
-        <v>11.04074881003603</v>
+        <v>10.91536485268583</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.53563113547826</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.664164441864187</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.60453609989368</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.66492056865433</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.21644662234726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.57784631685627</v>
+      </c>
+      <c r="R8">
+        <v>11.73354927435402</v>
+      </c>
+      <c r="S8">
+        <v>12.08224481571437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.54318160645137</v>
+        <v>19.22514694968415</v>
       </c>
       <c r="C9">
-        <v>15.28637940805055</v>
+        <v>15.68015519368526</v>
       </c>
       <c r="D9">
-        <v>4.807722408006629</v>
+        <v>4.921715629471829</v>
       </c>
       <c r="E9">
-        <v>13.98563659959694</v>
+        <v>13.966477812672</v>
       </c>
       <c r="F9">
-        <v>17.31923448012624</v>
+        <v>16.9750260531859</v>
       </c>
       <c r="G9">
-        <v>21.39596077563111</v>
+        <v>20.73708096985703</v>
       </c>
       <c r="I9">
-        <v>3.910233843648773</v>
+        <v>3.830053587978235</v>
       </c>
       <c r="J9">
-        <v>7.664018420472608</v>
+        <v>8.184220691573135</v>
       </c>
       <c r="K9">
-        <v>10.82176459568686</v>
+        <v>10.63761344429592</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.1231190936671</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.836454705957462</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.0835881174383</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.49206481339264</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.78815613449355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.04806268753472</v>
+      </c>
+      <c r="R9">
+        <v>11.61933838019755</v>
+      </c>
+      <c r="S9">
+        <v>12.5573709799162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.18848024500408</v>
+        <v>20.77792679868505</v>
       </c>
       <c r="C10">
-        <v>16.40014266623187</v>
+        <v>16.88518005302071</v>
       </c>
       <c r="D10">
-        <v>5.12563879266885</v>
+        <v>5.276955718135601</v>
       </c>
       <c r="E10">
-        <v>15.33243075076101</v>
+        <v>15.33846841458637</v>
       </c>
       <c r="F10">
-        <v>18.33448535592583</v>
+        <v>17.82795470445735</v>
       </c>
       <c r="G10">
-        <v>22.86591632323446</v>
+        <v>22.68478740125955</v>
       </c>
       <c r="I10">
-        <v>4.154673908962225</v>
+        <v>4.04613163806451</v>
       </c>
       <c r="J10">
-        <v>7.748647370628574</v>
+        <v>8.011493429859653</v>
       </c>
       <c r="K10">
-        <v>10.68780290802887</v>
+        <v>10.42487974781502</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.81669772711836</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.061254081146147</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.73218325482881</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.38434418910646</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.23062323351148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20.67751138119727</v>
+      </c>
+      <c r="R10">
+        <v>11.56542082912269</v>
+      </c>
+      <c r="S10">
+        <v>12.87013393430968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.87560646561079</v>
+        <v>21.3877742385365</v>
       </c>
       <c r="C11">
-        <v>16.92194102738015</v>
+        <v>17.38368670733323</v>
       </c>
       <c r="D11">
-        <v>5.269525295266205</v>
+        <v>5.461356701980099</v>
       </c>
       <c r="E11">
-        <v>15.94452076348077</v>
+        <v>15.97373237996192</v>
       </c>
       <c r="F11">
-        <v>18.76523123494063</v>
+        <v>18.06881954150958</v>
       </c>
       <c r="G11">
-        <v>23.47649560787982</v>
+        <v>24.36405549454038</v>
       </c>
       <c r="I11">
-        <v>4.265904503896442</v>
+        <v>4.142678278157247</v>
       </c>
       <c r="J11">
-        <v>7.782863183302434</v>
+        <v>7.553666838311118</v>
       </c>
       <c r="K11">
-        <v>10.61175403400309</v>
+        <v>10.26601878354446</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.643030094311497</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.118861684092114</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.4455850719237</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.3458058104606</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.41571590175989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>21.36203511940703</v>
+      </c>
+      <c r="R11">
+        <v>11.56876871076839</v>
+      </c>
+      <c r="S11">
+        <v>12.90008704009706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.13970569394684</v>
+        <v>21.61872084507095</v>
       </c>
       <c r="C12">
-        <v>17.09755971096899</v>
+        <v>17.54255024804557</v>
       </c>
       <c r="D12">
-        <v>5.320181661437799</v>
+        <v>5.53006396865139</v>
       </c>
       <c r="E12">
-        <v>16.17348519567783</v>
+        <v>16.21352673042756</v>
       </c>
       <c r="F12">
-        <v>18.94225665259765</v>
+        <v>18.16022430089697</v>
       </c>
       <c r="G12">
-        <v>23.73236716828974</v>
+        <v>25.12241405907227</v>
       </c>
       <c r="I12">
-        <v>4.306529940063881</v>
+        <v>4.176689920128111</v>
       </c>
       <c r="J12">
-        <v>7.801492115436439</v>
+        <v>7.349721514545643</v>
       </c>
       <c r="K12">
-        <v>10.59669672762674</v>
+        <v>10.21222841466646</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.582088108323251</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.149014390912873</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.71030333338717</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.32854019103049</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.49874808411098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>21.61353496239945</v>
+      </c>
+      <c r="R12">
+        <v>11.56946788718203</v>
+      </c>
+      <c r="S12">
+        <v>12.91235187489094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.08506874456425</v>
+        <v>21.57140228751304</v>
       </c>
       <c r="C13">
-        <v>17.05610968367077</v>
+        <v>17.50495800200459</v>
       </c>
       <c r="D13">
-        <v>5.308733248803768</v>
+        <v>5.514599676201367</v>
       </c>
       <c r="E13">
-        <v>16.1244062406167</v>
+        <v>16.16202570363347</v>
       </c>
       <c r="F13">
-        <v>18.90704657639289</v>
+        <v>18.14406016585197</v>
       </c>
       <c r="G13">
-        <v>23.68248351501558</v>
+        <v>24.96004624712294</v>
       </c>
       <c r="I13">
-        <v>4.297504751053574</v>
+        <v>4.168934090379457</v>
       </c>
       <c r="J13">
-        <v>7.798434302033534</v>
+        <v>7.395695323520495</v>
       </c>
       <c r="K13">
-        <v>10.60238892049342</v>
+        <v>10.22634630431509</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.59660515729232</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.145018730709243</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.65348857391734</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.3315542694561</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.48322278816774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>21.55966357674777</v>
+      </c>
+      <c r="R13">
+        <v>11.56843863652641</v>
+      </c>
+      <c r="S13">
+        <v>12.91256882614629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.89829985188591</v>
+        <v>21.40782061140728</v>
       </c>
       <c r="C14">
-        <v>16.93484078768898</v>
+        <v>17.39532137491182</v>
       </c>
       <c r="D14">
-        <v>5.273463529990017</v>
+        <v>5.466722580447909</v>
       </c>
       <c r="E14">
-        <v>15.96346079409264</v>
+        <v>15.99352284964387</v>
       </c>
       <c r="F14">
-        <v>18.78104238494719</v>
+        <v>18.07785974497018</v>
       </c>
       <c r="G14">
-        <v>23.49978297939141</v>
+        <v>24.42675870368397</v>
       </c>
       <c r="I14">
-        <v>4.269124957377427</v>
+        <v>4.145288073273925</v>
       </c>
       <c r="J14">
-        <v>7.784801138603958</v>
+        <v>7.537831828201915</v>
       </c>
       <c r="K14">
-        <v>10.6115535737911</v>
+        <v>10.26267755409664</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.638619530023526</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.122404855817306</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.46745313998468</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.34408680336426</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.42355174066579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>21.38285941154295</v>
+      </c>
+      <c r="R14">
+        <v>11.56845236076744</v>
+      </c>
+      <c r="S14">
+        <v>12.90232736350193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.77916224683965</v>
+        <v>21.30236631406846</v>
       </c>
       <c r="C15">
-        <v>16.86768132519956</v>
+        <v>17.33448904786025</v>
       </c>
       <c r="D15">
-        <v>5.252896154077871</v>
+        <v>5.438800119118937</v>
       </c>
       <c r="E15">
-        <v>15.86427626405459</v>
+        <v>15.88997346805697</v>
       </c>
       <c r="F15">
-        <v>18.69801599300191</v>
+        <v>18.02968646142781</v>
       </c>
       <c r="G15">
-        <v>23.37737055156259</v>
+        <v>24.10215223489183</v>
       </c>
       <c r="I15">
-        <v>4.252342843363683</v>
+        <v>4.131714519773793</v>
       </c>
       <c r="J15">
-        <v>7.774595525120839</v>
+        <v>7.619196338868611</v>
       </c>
       <c r="K15">
-        <v>10.6124077159479</v>
+        <v>10.27970163184929</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.661442439015083</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.103514024249532</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.35289162998949</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.35316469350192</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.38235614284349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>21.27366524441474</v>
+      </c>
+      <c r="R15">
+        <v>11.57029603552535</v>
+      </c>
+      <c r="S15">
+        <v>12.88991152211939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.1088213369635</v>
+        <v>20.70265857299271</v>
       </c>
       <c r="C16">
-        <v>16.42995243651458</v>
+        <v>16.9170237920445</v>
       </c>
       <c r="D16">
-        <v>5.125986912423514</v>
+        <v>5.275109975353953</v>
       </c>
       <c r="E16">
-        <v>15.29043870306438</v>
+        <v>15.29525229192493</v>
       </c>
       <c r="F16">
-        <v>18.25697146762334</v>
+        <v>17.76102103666237</v>
       </c>
       <c r="G16">
-        <v>22.7373311513141</v>
+        <v>22.49900582342286</v>
       </c>
       <c r="I16">
-        <v>4.151778534021818</v>
+        <v>4.046805623626761</v>
       </c>
       <c r="J16">
-        <v>7.729991852569121</v>
+        <v>8.021535207041333</v>
       </c>
       <c r="K16">
-        <v>10.65143320412891</v>
+        <v>10.39599739439888</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.804374240085199</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.018674290558391</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.68545535603091</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.39788602950108</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.17811092454934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>20.63240028144904</v>
+      </c>
+      <c r="R16">
+        <v>11.57740791980625</v>
+      </c>
+      <c r="S16">
+        <v>12.82661511585463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.68652189639723</v>
+        <v>20.31662956904349</v>
       </c>
       <c r="C17">
-        <v>16.15638991946225</v>
+        <v>16.64238917246729</v>
       </c>
       <c r="D17">
-        <v>5.046556441687834</v>
+        <v>5.17795111793053</v>
       </c>
       <c r="E17">
-        <v>14.93248538288537</v>
+        <v>14.92825040946241</v>
       </c>
       <c r="F17">
-        <v>17.9852024396213</v>
+        <v>17.57085883667035</v>
       </c>
       <c r="G17">
-        <v>22.34185866221548</v>
+        <v>21.68722926095229</v>
       </c>
       <c r="I17">
-        <v>4.08964014449872</v>
+        <v>3.993690837828888</v>
       </c>
       <c r="J17">
-        <v>7.703966239321351</v>
+        <v>8.194921162391463</v>
       </c>
       <c r="K17">
-        <v>10.67778999616304</v>
+        <v>10.45884997680657</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.88791209362639</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.962334155935654</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.26660315850999</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.42630610688052</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.05443272153473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>20.22549587994547</v>
+      </c>
+      <c r="R17">
+        <v>11.58660535529579</v>
+      </c>
+      <c r="S17">
+        <v>12.76885463013072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.45011676491612</v>
+        <v>20.09851000019458</v>
       </c>
       <c r="C18">
-        <v>15.97721422092733</v>
+        <v>16.45707362952305</v>
       </c>
       <c r="D18">
-        <v>4.997235885557976</v>
+        <v>5.120181469360918</v>
       </c>
       <c r="E18">
-        <v>14.72487721142203</v>
+        <v>14.71685183855011</v>
       </c>
       <c r="F18">
-        <v>17.84376096665704</v>
+        <v>17.46756259578038</v>
       </c>
       <c r="G18">
-        <v>22.14093135040153</v>
+        <v>21.31142323282372</v>
       </c>
       <c r="I18">
-        <v>4.0517073976613</v>
+        <v>3.959753538533441</v>
       </c>
       <c r="J18">
-        <v>7.69451331839863</v>
+        <v>8.270420280083467</v>
       </c>
       <c r="K18">
-        <v>10.7063172421443</v>
+        <v>10.50377781765243</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.941782639429771</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.940162643164756</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.02201320545531</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.43974959172427</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.99636171510049</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>19.98623912928794</v>
+      </c>
+      <c r="R18">
+        <v>11.5900684217028</v>
+      </c>
+      <c r="S18">
+        <v>12.74121585628669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.36123951058902</v>
+        <v>20.01534733675011</v>
       </c>
       <c r="C19">
-        <v>15.93161910077098</v>
+        <v>16.40893850107544</v>
       </c>
       <c r="D19">
-        <v>4.982794068139836</v>
+        <v>5.103193527768999</v>
       </c>
       <c r="E19">
-        <v>14.65383661747861</v>
+        <v>14.64477267927475</v>
       </c>
       <c r="F19">
-        <v>17.78404899804009</v>
+        <v>17.41928445871932</v>
       </c>
       <c r="G19">
-        <v>22.05155041842065</v>
+        <v>21.17356728754998</v>
       </c>
       <c r="I19">
-        <v>4.040332224502778</v>
+        <v>3.9504191202707</v>
       </c>
       <c r="J19">
-        <v>7.687515659287792</v>
+        <v>8.287413489363935</v>
       </c>
       <c r="K19">
-        <v>10.70646673310562</v>
+        <v>10.50946462822446</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.954028193925318</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.923661293539164</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.93875778061115</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.44687642395296</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.96720653086309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>19.90453881061995</v>
+      </c>
+      <c r="R19">
+        <v>11.59421129165782</v>
+      </c>
+      <c r="S19">
+        <v>12.72122402181985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.73271780213308</v>
+        <v>20.35923707836901</v>
       </c>
       <c r="C20">
-        <v>16.18414859864182</v>
+        <v>16.67073962013703</v>
       </c>
       <c r="D20">
-        <v>5.054833558910309</v>
+        <v>5.187931045340854</v>
       </c>
       <c r="E20">
-        <v>14.97085441183778</v>
+        <v>14.96743714775063</v>
       </c>
       <c r="F20">
-        <v>18.0153625972305</v>
+        <v>17.59324085802082</v>
       </c>
       <c r="G20">
-        <v>22.38619801263966</v>
+        <v>21.76926597218399</v>
       </c>
       <c r="I20">
-        <v>4.09610874475131</v>
+        <v>3.999145657947455</v>
       </c>
       <c r="J20">
-        <v>7.707080427245463</v>
+        <v>8.179777820738028</v>
       </c>
       <c r="K20">
-        <v>10.67587752754027</v>
+        <v>10.45338510672603</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.879754963501263</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.969367847429041</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.31153408178483</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.42298604123422</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.06850805442539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.26931117246052</v>
+      </c>
+      <c r="R20">
+        <v>11.58517468436918</v>
+      </c>
+      <c r="S20">
+        <v>12.77666779631762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.94225094964572</v>
+        <v>21.43183808897621</v>
       </c>
       <c r="C21">
-        <v>16.99166660909596</v>
+        <v>17.42703476369612</v>
       </c>
       <c r="D21">
-        <v>5.28710125769299</v>
+        <v>5.492652255317969</v>
       </c>
       <c r="E21">
-        <v>16.01032504731939</v>
+        <v>16.04948368567571</v>
       </c>
       <c r="F21">
-        <v>18.80186879326824</v>
+        <v>18.03963878761659</v>
       </c>
       <c r="G21">
-        <v>23.5245173985192</v>
+        <v>24.85874629265303</v>
       </c>
       <c r="I21">
-        <v>4.279308655577266</v>
+        <v>4.153829344756815</v>
       </c>
       <c r="J21">
-        <v>7.783243386836514</v>
+        <v>7.368328007613504</v>
       </c>
       <c r="K21">
-        <v>10.59476846515849</v>
+        <v>10.22296356193482</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.609601724247414</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.099306011136057</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.52243787669382</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.34417823640855</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.42759697370577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>21.42803475724849</v>
+      </c>
+      <c r="R21">
+        <v>11.57827415243443</v>
+      </c>
+      <c r="S21">
+        <v>12.85815363663719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.7107262713994</v>
+        <v>22.10988621674844</v>
       </c>
       <c r="C22">
-        <v>17.47608880806183</v>
+        <v>17.87104171132535</v>
       </c>
       <c r="D22">
-        <v>5.42957101603891</v>
+        <v>5.684069479909946</v>
       </c>
       <c r="E22">
-        <v>16.67126113319935</v>
+        <v>16.73870439030547</v>
       </c>
       <c r="F22">
-        <v>19.33203840070843</v>
+        <v>18.33690244797938</v>
       </c>
       <c r="G22">
-        <v>24.29540829587746</v>
+        <v>26.96433231333869</v>
       </c>
       <c r="I22">
-        <v>4.395195182200402</v>
+        <v>4.250296755756962</v>
       </c>
       <c r="J22">
-        <v>7.844515876605551</v>
+        <v>6.859078800660575</v>
       </c>
       <c r="K22">
-        <v>10.56789648011497</v>
+        <v>10.08571876174928</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.445455713185623</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.2103435121811</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.28305179274625</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.29118024225445</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.68451765425948</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.15322608705518</v>
+      </c>
+      <c r="R22">
+        <v>11.57616968586247</v>
+      </c>
+      <c r="S22">
+        <v>12.92055983839237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.31709040843417</v>
+        <v>21.77364772459331</v>
       </c>
       <c r="C23">
-        <v>17.1938078091386</v>
+        <v>17.62561516450571</v>
       </c>
       <c r="D23">
-        <v>5.350118729281093</v>
+        <v>5.572382144579941</v>
       </c>
       <c r="E23">
-        <v>16.3208147398441</v>
+        <v>16.36840536946668</v>
       </c>
       <c r="F23">
-        <v>19.06889744448581</v>
+        <v>18.22774180344091</v>
       </c>
       <c r="G23">
-        <v>23.91951975688448</v>
+        <v>25.66103940431552</v>
       </c>
       <c r="I23">
-        <v>4.331552923769396</v>
+        <v>4.196676087368538</v>
       </c>
       <c r="J23">
-        <v>7.818063021200423</v>
+        <v>7.213560008180535</v>
       </c>
       <c r="K23">
-        <v>10.59841395672784</v>
+        <v>10.18607275137411</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.547801988586997</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.177820538640237</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.87963523439297</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.31456394030483</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.56306965848987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.77370096688683</v>
+      </c>
+      <c r="R23">
+        <v>11.5674902509316</v>
+      </c>
+      <c r="S23">
+        <v>12.92746887688276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.7339615996851</v>
+        <v>20.36218374291962</v>
       </c>
       <c r="C24">
-        <v>16.12972687146706</v>
+        <v>16.61499650958922</v>
       </c>
       <c r="D24">
-        <v>5.044675040941922</v>
+        <v>5.176958355383516</v>
       </c>
       <c r="E24">
-        <v>14.95451405505297</v>
+        <v>14.95072449838433</v>
       </c>
       <c r="F24">
-        <v>18.0337623636098</v>
+        <v>17.61514213151273</v>
       </c>
       <c r="G24">
-        <v>22.42380835083261</v>
+        <v>21.79037091443412</v>
       </c>
       <c r="I24">
-        <v>4.089637921563017</v>
+        <v>3.99126530927287</v>
       </c>
       <c r="J24">
-        <v>7.71629785525321</v>
+        <v>8.196281556781544</v>
       </c>
       <c r="K24">
-        <v>10.70327391583719</v>
+        <v>10.48065034919844</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.898895252874841</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.990570836566689</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.29081063792364</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.41755098567698</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.0883632025969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.24906430490629</v>
+      </c>
+      <c r="R24">
+        <v>11.57836784362006</v>
+      </c>
+      <c r="S24">
+        <v>12.79908883269445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.87334803128321</v>
+        <v>18.58851611387012</v>
       </c>
       <c r="C25">
-        <v>14.90663503208791</v>
+        <v>15.2614995330611</v>
       </c>
       <c r="D25">
-        <v>4.692588352654476</v>
+        <v>4.793915856903315</v>
       </c>
       <c r="E25">
-        <v>13.54416827590937</v>
+        <v>13.52286845276109</v>
       </c>
       <c r="F25">
-        <v>16.90621754239587</v>
+        <v>16.61477659206043</v>
       </c>
       <c r="G25">
-        <v>20.78078485987043</v>
+        <v>19.99686965501512</v>
       </c>
       <c r="I25">
-        <v>3.820454656445018</v>
+        <v>3.752512935865675</v>
       </c>
       <c r="J25">
-        <v>7.625558466141038</v>
+        <v>8.212303552245846</v>
       </c>
       <c r="K25">
-        <v>10.84971269766761</v>
+        <v>10.69089849200128</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.21932407289785</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.74986756633669</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.44395606332739</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.54219132275204</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.60182105000538</v>
+        <v>18.4141619340994</v>
+      </c>
+      <c r="R25">
+        <v>11.65174765466959</v>
+      </c>
+      <c r="S25">
+        <v>12.41210560618235</v>
       </c>
     </row>
   </sheetData>
